--- a/optaplanner-examples/data/flightcrewscheduling/unsolved/175flights-7days-Europe.xlsx
+++ b/optaplanner-examples/data/flightcrewscheduling/unsolved/175flights-7days-Europe.xlsx
@@ -6754,10 +6754,10 @@
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -6885,7 +6885,7 @@
       <c r="D7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -6894,10 +6894,10 @@
       <c r="G7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -7010,7 +7010,7 @@
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -7019,10 +7019,10 @@
       <c r="F11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -7037,7 +7037,7 @@
         <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -7057,7 +7057,7 @@
       <c r="H12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>74</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -7074,7 +7074,7 @@
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -7086,13 +7086,13 @@
       <c r="G13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="H13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7109,16 +7109,16 @@
       <c r="D14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -7269,13 +7269,13 @@
       <c r="D19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="E19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -7301,10 +7301,10 @@
       <c r="D20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -7316,7 +7316,7 @@
       <c r="I20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7325,7 +7325,7 @@
         <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -7345,10 +7345,10 @@
       <c r="H21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="I21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
@@ -7467,16 +7467,16 @@
       <c r="F25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="G25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7490,7 +7490,7 @@
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -7499,7 +7499,7 @@
       <c r="F26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -7517,7 +7517,7 @@
         <v>107</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
@@ -7549,7 +7549,7 @@
         <v>108</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>17</v>
@@ -7677,7 +7677,7 @@
         <v>112</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
@@ -7685,10 +7685,10 @@
       <c r="D32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -7709,7 +7709,7 @@
         <v>113</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
@@ -7726,10 +7726,10 @@
       <c r="G33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33" s="3" t="s">
+      <c r="H33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J33" s="2" t="s">
@@ -7741,7 +7741,7 @@
         <v>114</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
@@ -7778,7 +7778,7 @@
       <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -7796,7 +7796,7 @@
       <c r="I35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7805,7 +7805,7 @@
         <v>116</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>18</v>
@@ -7819,7 +7819,7 @@
       <c r="F36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="3" t="s">
         <v>74</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -7877,7 +7877,7 @@
       <c r="D38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -7886,7 +7886,7 @@
       <c r="G38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -7901,7 +7901,7 @@
         <v>119</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>17</v>
@@ -7933,7 +7933,7 @@
         <v>120</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>18</v>
@@ -7965,7 +7965,7 @@
         <v>121</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>18</v>
@@ -7985,7 +7985,7 @@
       <c r="H41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="3" t="s">
         <v>74</v>
       </c>
       <c r="J41" s="2" t="s">
@@ -8029,7 +8029,7 @@
         <v>123</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
@@ -8040,16 +8040,16 @@
       <c r="E43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I43" s="3" t="s">
+      <c r="H43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J43" s="2" t="s">
@@ -8061,7 +8061,7 @@
         <v>124</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
@@ -8093,27 +8093,27 @@
         <v>125</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="F45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J45" s="2" t="s">
@@ -8125,7 +8125,7 @@
         <v>126</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -8157,7 +8157,7 @@
         <v>127</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>18</v>
@@ -8165,7 +8165,7 @@
       <c r="D47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -8180,7 +8180,7 @@
       <c r="I47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8189,7 +8189,7 @@
         <v>128</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
@@ -8221,7 +8221,7 @@
         <v>129</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
@@ -8253,7 +8253,7 @@
         <v>130</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
@@ -8317,24 +8317,24 @@
         <v>132</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I52" s="2" t="s">
@@ -8363,7 +8363,7 @@
       <c r="F53" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H53" s="2" t="s">
@@ -8381,7 +8381,7 @@
         <v>134</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
@@ -8404,7 +8404,7 @@
       <c r="I54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8418,25 +8418,25 @@
       <c r="C55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="3" t="s">
+      <c r="D55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8477,7 +8477,7 @@
         <v>137</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>18</v>
@@ -8532,7 +8532,7 @@
       <c r="I58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J58" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8541,7 +8541,7 @@
         <v>139</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
@@ -8573,7 +8573,7 @@
         <v>140</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>18</v>
@@ -8637,7 +8637,7 @@
         <v>142</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>18</v>
@@ -8654,7 +8654,7 @@
       <c r="G62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I62" s="2" t="s">
@@ -8669,7 +8669,7 @@
         <v>143</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
@@ -8683,13 +8683,13 @@
       <c r="F63" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J63" s="2" t="s">
@@ -8718,10 +8718,10 @@
       <c r="G64" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I64" s="3" t="s">
+      <c r="H64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J64" s="2" t="s">
@@ -8738,7 +8738,7 @@
       <c r="C65" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -8747,7 +8747,7 @@
       <c r="F65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="3" t="s">
         <v>74</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -8765,7 +8765,7 @@
         <v>146</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>18</v>
@@ -8776,7 +8776,7 @@
       <c r="E66" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G66" s="2" t="s">
@@ -8802,7 +8802,7 @@
       <c r="C67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -8820,7 +8820,7 @@
       <c r="I67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="J67" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8829,7 +8829,7 @@
         <v>148</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
@@ -8869,10 +8869,10 @@
       <c r="D69" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F69" s="3" t="s">
+      <c r="E69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G69" s="2" t="s">
@@ -8881,7 +8881,7 @@
       <c r="H69" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" s="3" t="s">
         <v>74</v>
       </c>
       <c r="J69" s="2" t="s">
@@ -8893,7 +8893,7 @@
         <v>150</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>18</v>
@@ -8901,7 +8901,7 @@
       <c r="D70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F70" s="2" t="s">
@@ -8916,7 +8916,7 @@
       <c r="I70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="J70" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8930,22 +8930,22 @@
       <c r="C71" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="D71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I71" s="3" t="s">
+      <c r="G71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J71" s="2" t="s">
@@ -8957,7 +8957,7 @@
         <v>152</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>18</v>
@@ -8989,30 +8989,30 @@
         <v>153</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="D73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J73" s="3" t="s">
+      <c r="I73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
       <c r="I75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9085,7 +9085,7 @@
         <v>156</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>18</v>
@@ -9096,13 +9096,13 @@
       <c r="E76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H76" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I76" s="2" t="s">
@@ -9117,7 +9117,7 @@
         <v>157</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>18</v>
@@ -9149,12 +9149,12 @@
         <v>158</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -9181,7 +9181,7 @@
         <v>159</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
@@ -9213,7 +9213,7 @@
         <v>160</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>18</v>
@@ -9245,7 +9245,7 @@
         <v>161</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>18</v>
@@ -9253,7 +9253,7 @@
       <c r="D81" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
@@ -9265,7 +9265,7 @@
       <c r="H81" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I81" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J81" s="2" t="s">
@@ -9277,18 +9277,18 @@
         <v>162</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G82" s="2" t="s">
@@ -9309,7 +9309,7 @@
         <v>163</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
@@ -9332,7 +9332,7 @@
       <c r="I83" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9341,7 +9341,7 @@
         <v>164</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
@@ -9373,12 +9373,12 @@
         <v>165</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -9419,7 +9419,7 @@
       <c r="F86" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="3" t="s">
         <v>74</v>
       </c>
       <c r="H86" s="2" t="s">
@@ -9460,7 +9460,7 @@
       <c r="I87" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="J87" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9477,22 +9477,22 @@
       <c r="D88" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F88" s="3" t="s">
+      <c r="E88" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="H88" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J88" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9533,7 +9533,7 @@
         <v>170</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>18</v>
@@ -9544,7 +9544,7 @@
       <c r="E90" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G90" s="2" t="s">
@@ -9570,13 +9570,13 @@
       <c r="C91" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G91" s="2" t="s">
@@ -9597,7 +9597,7 @@
         <v>172</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>18</v>
@@ -9605,7 +9605,7 @@
       <c r="D92" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
@@ -9614,10 +9614,10 @@
       <c r="G92" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I92" s="2" t="s">
+      <c r="H92" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I92" s="3" t="s">
         <v>74</v>
       </c>
       <c r="J92" s="2" t="s">
@@ -9693,7 +9693,7 @@
         <v>175</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>18</v>
@@ -9701,7 +9701,7 @@
       <c r="D95" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F95" s="2" t="s">
@@ -9713,10 +9713,10 @@
       <c r="H95" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I95" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J95" s="3" t="s">
+      <c r="I95" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J95" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9725,7 +9725,7 @@
         <v>176</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>18</v>
@@ -9757,7 +9757,7 @@
         <v>177</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>18</v>
@@ -9774,7 +9774,7 @@
       <c r="G97" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="H97" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I97" s="2" t="s">
@@ -9794,16 +9794,16 @@
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E98" s="3" t="s">
+      <c r="D98" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G98" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H98" s="2" t="s">
@@ -9821,7 +9821,7 @@
         <v>179</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
@@ -9832,7 +9832,7 @@
       <c r="E99" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F99" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G99" s="2" t="s">
@@ -9844,7 +9844,7 @@
       <c r="I99" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="J99" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9861,7 +9861,7 @@
       <c r="D100" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F100" s="2" t="s">
@@ -9917,7 +9917,7 @@
         <v>182</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>18</v>
@@ -9940,7 +9940,7 @@
       <c r="I102" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="J102" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9949,7 +9949,7 @@
         <v>183</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
@@ -9995,10 +9995,10 @@
       <c r="F104" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G104" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H104" s="3" t="s">
+      <c r="G104" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I104" s="2" t="s">
@@ -10013,7 +10013,7 @@
         <v>185</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>18</v>
@@ -10088,7 +10088,7 @@
       <c r="E107" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="F107" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G107" s="2" t="s">
@@ -10129,7 +10129,7 @@
       <c r="H108" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="I108" s="3" t="s">
         <v>74</v>
       </c>
       <c r="J108" s="2" t="s">
@@ -10173,7 +10173,7 @@
         <v>190</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>18</v>
@@ -10205,12 +10205,12 @@
         <v>191</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E111" s="2" t="s">
@@ -10225,7 +10225,7 @@
       <c r="H111" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I111" s="3" t="s">
+      <c r="I111" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J111" s="2" t="s">
@@ -10237,7 +10237,7 @@
         <v>192</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>18</v>
@@ -10245,13 +10245,13 @@
       <c r="D112" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="G112" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H112" s="2" t="s">
@@ -10274,7 +10274,7 @@
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E113" s="2" t="s">
@@ -10286,7 +10286,7 @@
       <c r="G113" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="H113" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I113" s="2" t="s">
@@ -10365,7 +10365,7 @@
         <v>196</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>18</v>
@@ -10434,22 +10434,22 @@
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H118" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I118" s="3" t="s">
+      <c r="H118" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I118" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J118" s="2" t="s">
@@ -10461,7 +10461,7 @@
         <v>199</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
@@ -10525,12 +10525,12 @@
         <v>201</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E121" s="2" t="s">
@@ -10548,7 +10548,7 @@
       <c r="I121" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J121" s="3" t="s">
+      <c r="J121" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10589,7 +10589,7 @@
         <v>203</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -10621,7 +10621,7 @@
         <v>204</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
@@ -10725,19 +10725,19 @@
       <c r="D127" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G127" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I127" s="3" t="s">
+      <c r="G127" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I127" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J127" s="2" t="s">
@@ -10749,7 +10749,7 @@
         <v>208</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
@@ -10813,7 +10813,7 @@
         <v>210</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>18</v>
@@ -10827,7 +10827,7 @@
       <c r="F130" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="G130" s="3" t="s">
         <v>74</v>
       </c>
       <c r="H130" s="2" t="s">
@@ -10845,7 +10845,7 @@
         <v>211</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>18</v>
@@ -10856,7 +10856,7 @@
       <c r="E131" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="F131" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G131" s="2" t="s">
@@ -10865,10 +10865,10 @@
       <c r="H131" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I131" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J131" s="3" t="s">
+      <c r="I131" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J131" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
         <v>212</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>18</v>
@@ -10885,7 +10885,7 @@
       <c r="D132" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F132" s="2" t="s">
@@ -10909,7 +10909,7 @@
         <v>213</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
@@ -10978,10 +10978,10 @@
       <c r="C135" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E135" s="3" t="s">
+      <c r="D135" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F135" s="2" t="s">
@@ -10993,10 +10993,10 @@
       <c r="H135" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I135" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J135" s="3" t="s">
+      <c r="I135" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J135" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11019,10 +11019,10 @@
       <c r="F136" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G136" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H136" s="3" t="s">
+      <c r="G136" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H136" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I136" s="2" t="s">
@@ -11118,7 +11118,7 @@
       <c r="G139" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H139" s="2" t="s">
+      <c r="H139" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I139" s="2" t="s">
@@ -11133,18 +11133,18 @@
         <v>220</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F140" s="3" t="s">
+      <c r="D140" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G140" s="2" t="s">
@@ -11176,7 +11176,7 @@
       <c r="E141" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F141" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G141" s="2" t="s">
@@ -11202,7 +11202,7 @@
       <c r="C142" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E142" s="2" t="s">
@@ -11211,7 +11211,7 @@
       <c r="F142" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G142" s="3" t="s">
+      <c r="G142" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H142" s="2" t="s">
@@ -11293,7 +11293,7 @@
         <v>225</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
@@ -11348,7 +11348,7 @@
       <c r="I146" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J146" s="2" t="s">
+      <c r="J146" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11357,7 +11357,7 @@
         <v>227</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>18</v>
@@ -11389,7 +11389,7 @@
         <v>228</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>17</v>
@@ -11421,30 +11421,30 @@
         <v>229</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F149" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J149" s="3" t="s">
+      <c r="F149" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J149" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -16457,7 +16457,7 @@
         <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -16529,7 +16529,7 @@
         <v>101</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -16545,7 +16545,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -16577,7 +16577,7 @@
         <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -16585,7 +16585,7 @@
         <v>108</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -16617,7 +16617,7 @@
         <v>112</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -16625,7 +16625,7 @@
         <v>113</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
@@ -16633,7 +16633,7 @@
         <v>114</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
@@ -16649,7 +16649,7 @@
         <v>116</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
@@ -16673,7 +16673,7 @@
         <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
@@ -16681,7 +16681,7 @@
         <v>120</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
@@ -16689,7 +16689,7 @@
         <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
@@ -16705,7 +16705,7 @@
         <v>123</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
@@ -16713,7 +16713,7 @@
         <v>124</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
@@ -16721,7 +16721,7 @@
         <v>125</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
@@ -16729,7 +16729,7 @@
         <v>126</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
@@ -16737,7 +16737,7 @@
         <v>127</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
@@ -16745,7 +16745,7 @@
         <v>128</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
@@ -16753,7 +16753,7 @@
         <v>129</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
@@ -16761,7 +16761,7 @@
         <v>130</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
@@ -16777,7 +16777,7 @@
         <v>132</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
@@ -16793,7 +16793,7 @@
         <v>134</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -16817,7 +16817,7 @@
         <v>137</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
@@ -16833,7 +16833,7 @@
         <v>139</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
@@ -16841,7 +16841,7 @@
         <v>140</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
@@ -16857,7 +16857,7 @@
         <v>142</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
@@ -16865,7 +16865,7 @@
         <v>143</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
@@ -16889,7 +16889,7 @@
         <v>146</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
@@ -16905,7 +16905,7 @@
         <v>148</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
@@ -16921,7 +16921,7 @@
         <v>150</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
@@ -16937,7 +16937,7 @@
         <v>152</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
@@ -16945,7 +16945,7 @@
         <v>153</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
@@ -16969,7 +16969,7 @@
         <v>156</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77">
@@ -16977,7 +16977,7 @@
         <v>157</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
@@ -16985,7 +16985,7 @@
         <v>158</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
@@ -16993,7 +16993,7 @@
         <v>159</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
@@ -17001,7 +17001,7 @@
         <v>160</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
@@ -17009,7 +17009,7 @@
         <v>161</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
@@ -17017,7 +17017,7 @@
         <v>162</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83">
@@ -17025,7 +17025,7 @@
         <v>163</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
@@ -17033,7 +17033,7 @@
         <v>164</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
@@ -17041,7 +17041,7 @@
         <v>165</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
@@ -17081,7 +17081,7 @@
         <v>170</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91">
@@ -17097,7 +17097,7 @@
         <v>172</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
@@ -17121,7 +17121,7 @@
         <v>175</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96">
@@ -17129,7 +17129,7 @@
         <v>176</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
@@ -17137,7 +17137,7 @@
         <v>177</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
@@ -17153,7 +17153,7 @@
         <v>179</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100">
@@ -17177,7 +17177,7 @@
         <v>182</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103">
@@ -17185,7 +17185,7 @@
         <v>183</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104">
@@ -17201,7 +17201,7 @@
         <v>185</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106">
@@ -17241,7 +17241,7 @@
         <v>190</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111">
@@ -17249,7 +17249,7 @@
         <v>191</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112">
@@ -17257,7 +17257,7 @@
         <v>192</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113">
@@ -17289,7 +17289,7 @@
         <v>196</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117">
@@ -17313,7 +17313,7 @@
         <v>199</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120">
@@ -17329,7 +17329,7 @@
         <v>201</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
@@ -17345,7 +17345,7 @@
         <v>203</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124">
@@ -17353,7 +17353,7 @@
         <v>204</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125">
@@ -17385,7 +17385,7 @@
         <v>208</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129">
@@ -17401,7 +17401,7 @@
         <v>210</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131">
@@ -17409,7 +17409,7 @@
         <v>211</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132">
@@ -17417,7 +17417,7 @@
         <v>212</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133">
@@ -17425,7 +17425,7 @@
         <v>213</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134">
@@ -17481,7 +17481,7 @@
         <v>220</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141">
@@ -17521,7 +17521,7 @@
         <v>225</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146">
@@ -17537,7 +17537,7 @@
         <v>227</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148">
@@ -17545,7 +17545,7 @@
         <v>228</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149">
@@ -17553,7 +17553,7 @@
         <v>229</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150">

--- a/optaplanner-examples/data/flightcrewscheduling/unsolved/175flights-7days-Europe.xlsx
+++ b/optaplanner-examples/data/flightcrewscheduling/unsolved/175flights-7days-Europe.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="642">
   <si>
     <t>Schedule start UTC Date</t>
   </si>
@@ -747,6 +747,48 @@
     <t>Employee assignments</t>
   </si>
   <si>
+    <t>AB009</t>
+  </si>
+  <si>
+    <t>2018-01-01 06:17</t>
+  </si>
+  <si>
+    <t>2018-01-01 08:12</t>
+  </si>
+  <si>
+    <t>Pilot, Pilot, Flight attendant, Flight attendant, Flight attendant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, , , , </t>
+  </si>
+  <si>
+    <t>AB001</t>
+  </si>
+  <si>
+    <t>2018-01-01 06:39</t>
+  </si>
+  <si>
+    <t>2018-01-01 10:02</t>
+  </si>
+  <si>
+    <t>AB023</t>
+  </si>
+  <si>
+    <t>2018-01-01 06:55</t>
+  </si>
+  <si>
+    <t>2018-01-01 10:18</t>
+  </si>
+  <si>
+    <t>AB011</t>
+  </si>
+  <si>
+    <t>2018-01-01 07:02</t>
+  </si>
+  <si>
+    <t>2018-01-01 10:22</t>
+  </si>
+  <si>
     <t>AB003</t>
   </si>
   <si>
@@ -756,10 +798,31 @@
     <t>2018-01-01 10:44</t>
   </si>
   <si>
-    <t>Pilot, Pilot, Flight attendant, Flight attendant, Flight attendant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, , , , </t>
+    <t>AB007</t>
+  </si>
+  <si>
+    <t>2018-01-01 07:14</t>
+  </si>
+  <si>
+    <t>2018-01-01 09:34</t>
+  </si>
+  <si>
+    <t>AB004</t>
+  </si>
+  <si>
+    <t>2018-01-01 07:26</t>
+  </si>
+  <si>
+    <t>2018-01-01 10:12</t>
+  </si>
+  <si>
+    <t>AB002</t>
+  </si>
+  <si>
+    <t>2018-01-01 08:49</t>
+  </si>
+  <si>
+    <t>2018-01-01 12:12</t>
   </si>
   <si>
     <t>AB008</t>
@@ -771,6 +834,15 @@
     <t>2018-01-01 11:26</t>
   </si>
   <si>
+    <t>AB012</t>
+  </si>
+  <si>
+    <t>2018-01-01 09:12</t>
+  </si>
+  <si>
+    <t>2018-01-01 12:32</t>
+  </si>
+  <si>
     <t>AB021</t>
   </si>
   <si>
@@ -780,6 +852,33 @@
     <t>2018-01-01 12:16</t>
   </si>
   <si>
+    <t>AB020</t>
+  </si>
+  <si>
+    <t>2018-01-01 10:55</t>
+  </si>
+  <si>
+    <t>2018-01-01 14:03</t>
+  </si>
+  <si>
+    <t>AB017</t>
+  </si>
+  <si>
+    <t>2018-01-01 10:57</t>
+  </si>
+  <si>
+    <t>2018-01-01 14:37</t>
+  </si>
+  <si>
+    <t>AB016</t>
+  </si>
+  <si>
+    <t>2018-01-01 11:22</t>
+  </si>
+  <si>
+    <t>2018-01-01 15:02</t>
+  </si>
+  <si>
     <t>AB018</t>
   </si>
   <si>
@@ -789,6 +888,60 @@
     <t>2018-01-01 13:19</t>
   </si>
   <si>
+    <t>AB005</t>
+  </si>
+  <si>
+    <t>2018-01-01 12:53</t>
+  </si>
+  <si>
+    <t>2018-01-01 15:18</t>
+  </si>
+  <si>
+    <t>AB013</t>
+  </si>
+  <si>
+    <t>2018-01-01 13:54</t>
+  </si>
+  <si>
+    <t>2018-01-01 17:34</t>
+  </si>
+  <si>
+    <t>AB014</t>
+  </si>
+  <si>
+    <t>2018-01-01 13:56</t>
+  </si>
+  <si>
+    <t>2018-01-01 17:56</t>
+  </si>
+  <si>
+    <t>AB025</t>
+  </si>
+  <si>
+    <t>2018-01-01 14:44</t>
+  </si>
+  <si>
+    <t>2018-01-01 17:50</t>
+  </si>
+  <si>
+    <t>AB019</t>
+  </si>
+  <si>
+    <t>2018-01-01 14:45</t>
+  </si>
+  <si>
+    <t>2018-01-01 17:45</t>
+  </si>
+  <si>
+    <t>AB010</t>
+  </si>
+  <si>
+    <t>2018-01-01 16:05</t>
+  </si>
+  <si>
+    <t>2018-01-01 18:25</t>
+  </si>
+  <si>
     <t>AB006</t>
   </si>
   <si>
@@ -798,49 +951,13 @@
     <t>2018-01-01 18:47</t>
   </si>
   <si>
-    <t>AB001</t>
-  </si>
-  <si>
-    <t>2018-01-01 06:39</t>
-  </si>
-  <si>
-    <t>2018-01-01 10:02</t>
-  </si>
-  <si>
-    <t>AB023</t>
-  </si>
-  <si>
-    <t>2018-01-01 06:55</t>
-  </si>
-  <si>
-    <t>2018-01-01 10:18</t>
-  </si>
-  <si>
-    <t>AB011</t>
-  </si>
-  <si>
-    <t>2018-01-01 07:02</t>
-  </si>
-  <si>
-    <t>2018-01-01 10:22</t>
-  </si>
-  <si>
-    <t>AB016</t>
-  </si>
-  <si>
-    <t>2018-01-01 11:22</t>
-  </si>
-  <si>
-    <t>2018-01-01 15:02</t>
-  </si>
-  <si>
-    <t>AB013</t>
-  </si>
-  <si>
-    <t>2018-01-01 13:54</t>
-  </si>
-  <si>
-    <t>2018-01-01 17:34</t>
+    <t>AB015</t>
+  </si>
+  <si>
+    <t>2018-01-01 16:50</t>
+  </si>
+  <si>
+    <t>2018-01-01 18:45</t>
   </si>
   <si>
     <t>AB022</t>
@@ -852,96 +969,6 @@
     <t>2018-01-01 19:56</t>
   </si>
   <si>
-    <t>AB015</t>
-  </si>
-  <si>
-    <t>2018-01-01 16:50</t>
-  </si>
-  <si>
-    <t>2018-01-01 18:45</t>
-  </si>
-  <si>
-    <t>AB017</t>
-  </si>
-  <si>
-    <t>2018-01-01 10:57</t>
-  </si>
-  <si>
-    <t>2018-01-01 14:37</t>
-  </si>
-  <si>
-    <t>AB014</t>
-  </si>
-  <si>
-    <t>2018-01-01 13:56</t>
-  </si>
-  <si>
-    <t>2018-01-01 17:56</t>
-  </si>
-  <si>
-    <t>AB012</t>
-  </si>
-  <si>
-    <t>2018-01-01 09:12</t>
-  </si>
-  <si>
-    <t>2018-01-01 12:32</t>
-  </si>
-  <si>
-    <t>AB019</t>
-  </si>
-  <si>
-    <t>2018-01-01 14:45</t>
-  </si>
-  <si>
-    <t>2018-01-01 17:45</t>
-  </si>
-  <si>
-    <t>AB009</t>
-  </si>
-  <si>
-    <t>2018-01-01 06:17</t>
-  </si>
-  <si>
-    <t>2018-01-01 08:12</t>
-  </si>
-  <si>
-    <t>AB005</t>
-  </si>
-  <si>
-    <t>2018-01-01 12:53</t>
-  </si>
-  <si>
-    <t>2018-01-01 15:18</t>
-  </si>
-  <si>
-    <t>AB004</t>
-  </si>
-  <si>
-    <t>2018-01-01 07:26</t>
-  </si>
-  <si>
-    <t>2018-01-01 10:12</t>
-  </si>
-  <si>
-    <t>AB020</t>
-  </si>
-  <si>
-    <t>2018-01-01 10:55</t>
-  </si>
-  <si>
-    <t>2018-01-01 14:03</t>
-  </si>
-  <si>
-    <t>AB002</t>
-  </si>
-  <si>
-    <t>2018-01-01 08:49</t>
-  </si>
-  <si>
-    <t>2018-01-01 12:12</t>
-  </si>
-  <si>
     <t>AB024</t>
   </si>
   <si>
@@ -951,31 +978,28 @@
     <t>2018-01-01 19:37</t>
   </si>
   <si>
-    <t>AB025</t>
-  </si>
-  <si>
-    <t>2018-01-01 14:44</t>
-  </si>
-  <si>
-    <t>2018-01-01 17:50</t>
-  </si>
-  <si>
-    <t>AB007</t>
-  </si>
-  <si>
-    <t>2018-01-01 07:14</t>
-  </si>
-  <si>
-    <t>2018-01-01 09:34</t>
-  </si>
-  <si>
-    <t>AB010</t>
-  </si>
-  <si>
-    <t>2018-01-01 16:05</t>
-  </si>
-  <si>
-    <t>2018-01-01 18:25</t>
+    <t>2018-01-02 06:17</t>
+  </si>
+  <si>
+    <t>2018-01-02 08:12</t>
+  </si>
+  <si>
+    <t>2018-01-02 06:39</t>
+  </si>
+  <si>
+    <t>2018-01-02 10:02</t>
+  </si>
+  <si>
+    <t>2018-01-02 06:55</t>
+  </si>
+  <si>
+    <t>2018-01-02 10:18</t>
+  </si>
+  <si>
+    <t>2018-01-02 07:02</t>
+  </si>
+  <si>
+    <t>2018-01-02 10:22</t>
   </si>
   <si>
     <t>2018-01-02 07:08</t>
@@ -984,58 +1008,112 @@
     <t>2018-01-02 10:44</t>
   </si>
   <si>
+    <t>2018-01-02 07:14</t>
+  </si>
+  <si>
+    <t>2018-01-02 09:34</t>
+  </si>
+  <si>
+    <t>2018-01-02 07:26</t>
+  </si>
+  <si>
+    <t>2018-01-02 10:12</t>
+  </si>
+  <si>
+    <t>2018-01-02 08:49</t>
+  </si>
+  <si>
+    <t>2018-01-02 12:12</t>
+  </si>
+  <si>
     <t>2018-01-02 09:01</t>
   </si>
   <si>
     <t>2018-01-02 11:26</t>
   </si>
   <si>
+    <t>2018-01-02 09:12</t>
+  </si>
+  <si>
+    <t>2018-01-02 12:32</t>
+  </si>
+  <si>
     <t>2018-01-02 09:36</t>
   </si>
   <si>
     <t>2018-01-02 12:16</t>
   </si>
   <si>
+    <t>2018-01-02 10:55</t>
+  </si>
+  <si>
+    <t>2018-01-02 14:03</t>
+  </si>
+  <si>
+    <t>2018-01-02 10:57</t>
+  </si>
+  <si>
+    <t>2018-01-02 14:37</t>
+  </si>
+  <si>
+    <t>2018-01-02 11:22</t>
+  </si>
+  <si>
+    <t>2018-01-02 15:02</t>
+  </si>
+  <si>
     <t>2018-01-02 11:40</t>
   </si>
   <si>
     <t>2018-01-02 13:19</t>
   </si>
   <si>
+    <t>2018-01-02 12:53</t>
+  </si>
+  <si>
+    <t>2018-01-02 15:18</t>
+  </si>
+  <si>
+    <t>2018-01-02 13:54</t>
+  </si>
+  <si>
+    <t>2018-01-02 17:34</t>
+  </si>
+  <si>
+    <t>2018-01-02 13:56</t>
+  </si>
+  <si>
+    <t>2018-01-02 17:56</t>
+  </si>
+  <si>
+    <t>2018-01-02 14:44</t>
+  </si>
+  <si>
+    <t>2018-01-02 17:50</t>
+  </si>
+  <si>
+    <t>2018-01-02 14:45</t>
+  </si>
+  <si>
+    <t>2018-01-02 17:45</t>
+  </si>
+  <si>
+    <t>2018-01-02 16:05</t>
+  </si>
+  <si>
+    <t>2018-01-02 18:25</t>
+  </si>
+  <si>
     <t>2018-01-02 16:27</t>
   </si>
   <si>
     <t>2018-01-02 18:47</t>
   </si>
   <si>
-    <t>2018-01-02 06:39</t>
-  </si>
-  <si>
-    <t>2018-01-02 10:02</t>
-  </si>
-  <si>
-    <t>2018-01-02 06:55</t>
-  </si>
-  <si>
-    <t>2018-01-02 10:18</t>
-  </si>
-  <si>
-    <t>2018-01-02 07:02</t>
-  </si>
-  <si>
-    <t>2018-01-02 10:22</t>
-  </si>
-  <si>
-    <t>2018-01-02 11:22</t>
-  </si>
-  <si>
-    <t>2018-01-02 15:02</t>
-  </si>
-  <si>
-    <t>2018-01-02 13:54</t>
-  </si>
-  <si>
-    <t>2018-01-02 17:34</t>
+    <t>2018-01-02 16:50</t>
+  </si>
+  <si>
+    <t>2018-01-02 18:45</t>
   </si>
   <si>
     <t>2018-01-02 17:16</t>
@@ -1044,88 +1122,34 @@
     <t>2018-01-02 19:56</t>
   </si>
   <si>
-    <t>2018-01-02 16:50</t>
-  </si>
-  <si>
-    <t>2018-01-02 18:45</t>
-  </si>
-  <si>
-    <t>2018-01-02 10:57</t>
-  </si>
-  <si>
-    <t>2018-01-02 14:37</t>
-  </si>
-  <si>
-    <t>2018-01-02 13:56</t>
-  </si>
-  <si>
-    <t>2018-01-02 17:56</t>
-  </si>
-  <si>
-    <t>2018-01-02 09:12</t>
-  </si>
-  <si>
-    <t>2018-01-02 12:32</t>
-  </si>
-  <si>
-    <t>2018-01-02 14:45</t>
-  </si>
-  <si>
-    <t>2018-01-02 17:45</t>
-  </si>
-  <si>
-    <t>2018-01-02 06:17</t>
-  </si>
-  <si>
-    <t>2018-01-02 08:12</t>
-  </si>
-  <si>
-    <t>2018-01-02 12:53</t>
-  </si>
-  <si>
-    <t>2018-01-02 15:18</t>
-  </si>
-  <si>
-    <t>2018-01-02 07:26</t>
-  </si>
-  <si>
-    <t>2018-01-02 10:12</t>
-  </si>
-  <si>
-    <t>2018-01-02 10:55</t>
-  </si>
-  <si>
-    <t>2018-01-02 14:03</t>
-  </si>
-  <si>
-    <t>2018-01-02 08:49</t>
-  </si>
-  <si>
-    <t>2018-01-02 12:12</t>
-  </si>
-  <si>
     <t>2018-01-02 17:44</t>
   </si>
   <si>
     <t>2018-01-02 19:37</t>
   </si>
   <si>
-    <t>2018-01-02 14:44</t>
-  </si>
-  <si>
-    <t>2018-01-02 17:50</t>
-  </si>
-  <si>
-    <t>2018-01-02 07:14</t>
-  </si>
-  <si>
-    <t>2018-01-02 09:34</t>
-  </si>
-  <si>
-    <t>2018-01-02 16:05</t>
-  </si>
-  <si>
-    <t>2018-01-02 18:25</t>
+    <t>2018-01-03 06:17</t>
+  </si>
+  <si>
+    <t>2018-01-03 08:12</t>
+  </si>
+  <si>
+    <t>2018-01-03 06:39</t>
+  </si>
+  <si>
+    <t>2018-01-03 10:02</t>
+  </si>
+  <si>
+    <t>2018-01-03 06:55</t>
+  </si>
+  <si>
+    <t>2018-01-03 10:18</t>
+  </si>
+  <si>
+    <t>2018-01-03 07:02</t>
+  </si>
+  <si>
+    <t>2018-01-03 10:22</t>
   </si>
   <si>
     <t>2018-01-03 07:08</t>
@@ -1134,58 +1158,112 @@
     <t>2018-01-03 10:44</t>
   </si>
   <si>
+    <t>2018-01-03 07:14</t>
+  </si>
+  <si>
+    <t>2018-01-03 09:34</t>
+  </si>
+  <si>
+    <t>2018-01-03 07:26</t>
+  </si>
+  <si>
+    <t>2018-01-03 10:12</t>
+  </si>
+  <si>
+    <t>2018-01-03 08:49</t>
+  </si>
+  <si>
+    <t>2018-01-03 12:12</t>
+  </si>
+  <si>
     <t>2018-01-03 09:01</t>
   </si>
   <si>
     <t>2018-01-03 11:26</t>
   </si>
   <si>
+    <t>2018-01-03 09:12</t>
+  </si>
+  <si>
+    <t>2018-01-03 12:32</t>
+  </si>
+  <si>
     <t>2018-01-03 09:36</t>
   </si>
   <si>
     <t>2018-01-03 12:16</t>
   </si>
   <si>
+    <t>2018-01-03 10:55</t>
+  </si>
+  <si>
+    <t>2018-01-03 14:03</t>
+  </si>
+  <si>
+    <t>2018-01-03 10:57</t>
+  </si>
+  <si>
+    <t>2018-01-03 14:37</t>
+  </si>
+  <si>
+    <t>2018-01-03 11:22</t>
+  </si>
+  <si>
+    <t>2018-01-03 15:02</t>
+  </si>
+  <si>
     <t>2018-01-03 11:40</t>
   </si>
   <si>
     <t>2018-01-03 13:19</t>
   </si>
   <si>
+    <t>2018-01-03 12:53</t>
+  </si>
+  <si>
+    <t>2018-01-03 15:18</t>
+  </si>
+  <si>
+    <t>2018-01-03 13:54</t>
+  </si>
+  <si>
+    <t>2018-01-03 17:34</t>
+  </si>
+  <si>
+    <t>2018-01-03 13:56</t>
+  </si>
+  <si>
+    <t>2018-01-03 17:56</t>
+  </si>
+  <si>
+    <t>2018-01-03 14:44</t>
+  </si>
+  <si>
+    <t>2018-01-03 17:50</t>
+  </si>
+  <si>
+    <t>2018-01-03 14:45</t>
+  </si>
+  <si>
+    <t>2018-01-03 17:45</t>
+  </si>
+  <si>
+    <t>2018-01-03 16:05</t>
+  </si>
+  <si>
+    <t>2018-01-03 18:25</t>
+  </si>
+  <si>
     <t>2018-01-03 16:27</t>
   </si>
   <si>
     <t>2018-01-03 18:47</t>
   </si>
   <si>
-    <t>2018-01-03 06:39</t>
-  </si>
-  <si>
-    <t>2018-01-03 10:02</t>
-  </si>
-  <si>
-    <t>2018-01-03 06:55</t>
-  </si>
-  <si>
-    <t>2018-01-03 10:18</t>
-  </si>
-  <si>
-    <t>2018-01-03 07:02</t>
-  </si>
-  <si>
-    <t>2018-01-03 10:22</t>
-  </si>
-  <si>
-    <t>2018-01-03 11:22</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:02</t>
-  </si>
-  <si>
-    <t>2018-01-03 13:54</t>
-  </si>
-  <si>
-    <t>2018-01-03 17:34</t>
+    <t>2018-01-03 16:50</t>
+  </si>
+  <si>
+    <t>2018-01-03 18:45</t>
   </si>
   <si>
     <t>2018-01-03 17:16</t>
@@ -1194,88 +1272,34 @@
     <t>2018-01-03 19:56</t>
   </si>
   <si>
-    <t>2018-01-03 16:50</t>
-  </si>
-  <si>
-    <t>2018-01-03 18:45</t>
-  </si>
-  <si>
-    <t>2018-01-03 10:57</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:37</t>
-  </si>
-  <si>
-    <t>2018-01-03 13:56</t>
-  </si>
-  <si>
-    <t>2018-01-03 17:56</t>
-  </si>
-  <si>
-    <t>2018-01-03 09:12</t>
-  </si>
-  <si>
-    <t>2018-01-03 12:32</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45</t>
-  </si>
-  <si>
-    <t>2018-01-03 17:45</t>
-  </si>
-  <si>
-    <t>2018-01-03 06:17</t>
-  </si>
-  <si>
-    <t>2018-01-03 08:12</t>
-  </si>
-  <si>
-    <t>2018-01-03 12:53</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:18</t>
-  </si>
-  <si>
-    <t>2018-01-03 07:26</t>
-  </si>
-  <si>
-    <t>2018-01-03 10:12</t>
-  </si>
-  <si>
-    <t>2018-01-03 10:55</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:03</t>
-  </si>
-  <si>
-    <t>2018-01-03 08:49</t>
-  </si>
-  <si>
-    <t>2018-01-03 12:12</t>
-  </si>
-  <si>
     <t>2018-01-03 17:44</t>
   </si>
   <si>
     <t>2018-01-03 19:37</t>
   </si>
   <si>
-    <t>2018-01-03 14:44</t>
-  </si>
-  <si>
-    <t>2018-01-03 17:50</t>
-  </si>
-  <si>
-    <t>2018-01-03 07:14</t>
-  </si>
-  <si>
-    <t>2018-01-03 09:34</t>
-  </si>
-  <si>
-    <t>2018-01-03 16:05</t>
-  </si>
-  <si>
-    <t>2018-01-03 18:25</t>
+    <t>2018-01-04 06:17</t>
+  </si>
+  <si>
+    <t>2018-01-04 08:12</t>
+  </si>
+  <si>
+    <t>2018-01-04 06:39</t>
+  </si>
+  <si>
+    <t>2018-01-04 10:02</t>
+  </si>
+  <si>
+    <t>2018-01-04 06:55</t>
+  </si>
+  <si>
+    <t>2018-01-04 10:18</t>
+  </si>
+  <si>
+    <t>2018-01-04 07:02</t>
+  </si>
+  <si>
+    <t>2018-01-04 10:22</t>
   </si>
   <si>
     <t>2018-01-04 07:08</t>
@@ -1284,58 +1308,112 @@
     <t>2018-01-04 10:44</t>
   </si>
   <si>
+    <t>2018-01-04 07:14</t>
+  </si>
+  <si>
+    <t>2018-01-04 09:34</t>
+  </si>
+  <si>
+    <t>2018-01-04 07:26</t>
+  </si>
+  <si>
+    <t>2018-01-04 10:12</t>
+  </si>
+  <si>
+    <t>2018-01-04 08:49</t>
+  </si>
+  <si>
+    <t>2018-01-04 12:12</t>
+  </si>
+  <si>
     <t>2018-01-04 09:01</t>
   </si>
   <si>
     <t>2018-01-04 11:26</t>
   </si>
   <si>
+    <t>2018-01-04 09:12</t>
+  </si>
+  <si>
+    <t>2018-01-04 12:32</t>
+  </si>
+  <si>
     <t>2018-01-04 09:36</t>
   </si>
   <si>
     <t>2018-01-04 12:16</t>
   </si>
   <si>
+    <t>2018-01-04 10:55</t>
+  </si>
+  <si>
+    <t>2018-01-04 14:03</t>
+  </si>
+  <si>
+    <t>2018-01-04 10:57</t>
+  </si>
+  <si>
+    <t>2018-01-04 14:37</t>
+  </si>
+  <si>
+    <t>2018-01-04 11:22</t>
+  </si>
+  <si>
+    <t>2018-01-04 15:02</t>
+  </si>
+  <si>
     <t>2018-01-04 11:40</t>
   </si>
   <si>
     <t>2018-01-04 13:19</t>
   </si>
   <si>
+    <t>2018-01-04 12:53</t>
+  </si>
+  <si>
+    <t>2018-01-04 15:18</t>
+  </si>
+  <si>
+    <t>2018-01-04 13:54</t>
+  </si>
+  <si>
+    <t>2018-01-04 17:34</t>
+  </si>
+  <si>
+    <t>2018-01-04 13:56</t>
+  </si>
+  <si>
+    <t>2018-01-04 17:56</t>
+  </si>
+  <si>
+    <t>2018-01-04 14:44</t>
+  </si>
+  <si>
+    <t>2018-01-04 17:50</t>
+  </si>
+  <si>
+    <t>2018-01-04 14:45</t>
+  </si>
+  <si>
+    <t>2018-01-04 17:45</t>
+  </si>
+  <si>
+    <t>2018-01-04 16:05</t>
+  </si>
+  <si>
+    <t>2018-01-04 18:25</t>
+  </si>
+  <si>
     <t>2018-01-04 16:27</t>
   </si>
   <si>
     <t>2018-01-04 18:47</t>
   </si>
   <si>
-    <t>2018-01-04 06:39</t>
-  </si>
-  <si>
-    <t>2018-01-04 10:02</t>
-  </si>
-  <si>
-    <t>2018-01-04 06:55</t>
-  </si>
-  <si>
-    <t>2018-01-04 10:18</t>
-  </si>
-  <si>
-    <t>2018-01-04 07:02</t>
-  </si>
-  <si>
-    <t>2018-01-04 10:22</t>
-  </si>
-  <si>
-    <t>2018-01-04 11:22</t>
-  </si>
-  <si>
-    <t>2018-01-04 15:02</t>
-  </si>
-  <si>
-    <t>2018-01-04 13:54</t>
-  </si>
-  <si>
-    <t>2018-01-04 17:34</t>
+    <t>2018-01-04 16:50</t>
+  </si>
+  <si>
+    <t>2018-01-04 18:45</t>
   </si>
   <si>
     <t>2018-01-04 17:16</t>
@@ -1344,88 +1422,34 @@
     <t>2018-01-04 19:56</t>
   </si>
   <si>
-    <t>2018-01-04 16:50</t>
-  </si>
-  <si>
-    <t>2018-01-04 18:45</t>
-  </si>
-  <si>
-    <t>2018-01-04 10:57</t>
-  </si>
-  <si>
-    <t>2018-01-04 14:37</t>
-  </si>
-  <si>
-    <t>2018-01-04 13:56</t>
-  </si>
-  <si>
-    <t>2018-01-04 17:56</t>
-  </si>
-  <si>
-    <t>2018-01-04 09:12</t>
-  </si>
-  <si>
-    <t>2018-01-04 12:32</t>
-  </si>
-  <si>
-    <t>2018-01-04 14:45</t>
-  </si>
-  <si>
-    <t>2018-01-04 17:45</t>
-  </si>
-  <si>
-    <t>2018-01-04 06:17</t>
-  </si>
-  <si>
-    <t>2018-01-04 08:12</t>
-  </si>
-  <si>
-    <t>2018-01-04 12:53</t>
-  </si>
-  <si>
-    <t>2018-01-04 15:18</t>
-  </si>
-  <si>
-    <t>2018-01-04 07:26</t>
-  </si>
-  <si>
-    <t>2018-01-04 10:12</t>
-  </si>
-  <si>
-    <t>2018-01-04 10:55</t>
-  </si>
-  <si>
-    <t>2018-01-04 14:03</t>
-  </si>
-  <si>
-    <t>2018-01-04 08:49</t>
-  </si>
-  <si>
-    <t>2018-01-04 12:12</t>
-  </si>
-  <si>
     <t>2018-01-04 17:44</t>
   </si>
   <si>
     <t>2018-01-04 19:37</t>
   </si>
   <si>
-    <t>2018-01-04 14:44</t>
-  </si>
-  <si>
-    <t>2018-01-04 17:50</t>
-  </si>
-  <si>
-    <t>2018-01-04 07:14</t>
-  </si>
-  <si>
-    <t>2018-01-04 09:34</t>
-  </si>
-  <si>
-    <t>2018-01-04 16:05</t>
-  </si>
-  <si>
-    <t>2018-01-04 18:25</t>
+    <t>2018-01-05 06:17</t>
+  </si>
+  <si>
+    <t>2018-01-05 08:12</t>
+  </si>
+  <si>
+    <t>2018-01-05 06:39</t>
+  </si>
+  <si>
+    <t>2018-01-05 10:02</t>
+  </si>
+  <si>
+    <t>2018-01-05 06:55</t>
+  </si>
+  <si>
+    <t>2018-01-05 10:18</t>
+  </si>
+  <si>
+    <t>2018-01-05 07:02</t>
+  </si>
+  <si>
+    <t>2018-01-05 10:22</t>
   </si>
   <si>
     <t>2018-01-05 07:08</t>
@@ -1434,58 +1458,112 @@
     <t>2018-01-05 10:44</t>
   </si>
   <si>
+    <t>2018-01-05 07:14</t>
+  </si>
+  <si>
+    <t>2018-01-05 09:34</t>
+  </si>
+  <si>
+    <t>2018-01-05 07:26</t>
+  </si>
+  <si>
+    <t>2018-01-05 10:12</t>
+  </si>
+  <si>
+    <t>2018-01-05 08:49</t>
+  </si>
+  <si>
+    <t>2018-01-05 12:12</t>
+  </si>
+  <si>
     <t>2018-01-05 09:01</t>
   </si>
   <si>
     <t>2018-01-05 11:26</t>
   </si>
   <si>
+    <t>2018-01-05 09:12</t>
+  </si>
+  <si>
+    <t>2018-01-05 12:32</t>
+  </si>
+  <si>
     <t>2018-01-05 09:36</t>
   </si>
   <si>
     <t>2018-01-05 12:16</t>
   </si>
   <si>
+    <t>2018-01-05 10:55</t>
+  </si>
+  <si>
+    <t>2018-01-05 14:03</t>
+  </si>
+  <si>
+    <t>2018-01-05 10:57</t>
+  </si>
+  <si>
+    <t>2018-01-05 14:37</t>
+  </si>
+  <si>
+    <t>2018-01-05 11:22</t>
+  </si>
+  <si>
+    <t>2018-01-05 15:02</t>
+  </si>
+  <si>
     <t>2018-01-05 11:40</t>
   </si>
   <si>
     <t>2018-01-05 13:19</t>
   </si>
   <si>
+    <t>2018-01-05 12:53</t>
+  </si>
+  <si>
+    <t>2018-01-05 15:18</t>
+  </si>
+  <si>
+    <t>2018-01-05 13:54</t>
+  </si>
+  <si>
+    <t>2018-01-05 17:34</t>
+  </si>
+  <si>
+    <t>2018-01-05 13:56</t>
+  </si>
+  <si>
+    <t>2018-01-05 17:56</t>
+  </si>
+  <si>
+    <t>2018-01-05 14:44</t>
+  </si>
+  <si>
+    <t>2018-01-05 17:50</t>
+  </si>
+  <si>
+    <t>2018-01-05 14:45</t>
+  </si>
+  <si>
+    <t>2018-01-05 17:45</t>
+  </si>
+  <si>
+    <t>2018-01-05 16:05</t>
+  </si>
+  <si>
+    <t>2018-01-05 18:25</t>
+  </si>
+  <si>
     <t>2018-01-05 16:27</t>
   </si>
   <si>
     <t>2018-01-05 18:47</t>
   </si>
   <si>
-    <t>2018-01-05 06:39</t>
-  </si>
-  <si>
-    <t>2018-01-05 10:02</t>
-  </si>
-  <si>
-    <t>2018-01-05 06:55</t>
-  </si>
-  <si>
-    <t>2018-01-05 10:18</t>
-  </si>
-  <si>
-    <t>2018-01-05 07:02</t>
-  </si>
-  <si>
-    <t>2018-01-05 10:22</t>
-  </si>
-  <si>
-    <t>2018-01-05 11:22</t>
-  </si>
-  <si>
-    <t>2018-01-05 15:02</t>
-  </si>
-  <si>
-    <t>2018-01-05 13:54</t>
-  </si>
-  <si>
-    <t>2018-01-05 17:34</t>
+    <t>2018-01-05 16:50</t>
+  </si>
+  <si>
+    <t>2018-01-05 18:45</t>
   </si>
   <si>
     <t>2018-01-05 17:16</t>
@@ -1494,88 +1572,34 @@
     <t>2018-01-05 19:56</t>
   </si>
   <si>
-    <t>2018-01-05 16:50</t>
-  </si>
-  <si>
-    <t>2018-01-05 18:45</t>
-  </si>
-  <si>
-    <t>2018-01-05 10:57</t>
-  </si>
-  <si>
-    <t>2018-01-05 14:37</t>
-  </si>
-  <si>
-    <t>2018-01-05 13:56</t>
-  </si>
-  <si>
-    <t>2018-01-05 17:56</t>
-  </si>
-  <si>
-    <t>2018-01-05 09:12</t>
-  </si>
-  <si>
-    <t>2018-01-05 12:32</t>
-  </si>
-  <si>
-    <t>2018-01-05 14:45</t>
-  </si>
-  <si>
-    <t>2018-01-05 17:45</t>
-  </si>
-  <si>
-    <t>2018-01-05 06:17</t>
-  </si>
-  <si>
-    <t>2018-01-05 08:12</t>
-  </si>
-  <si>
-    <t>2018-01-05 12:53</t>
-  </si>
-  <si>
-    <t>2018-01-05 15:18</t>
-  </si>
-  <si>
-    <t>2018-01-05 07:26</t>
-  </si>
-  <si>
-    <t>2018-01-05 10:12</t>
-  </si>
-  <si>
-    <t>2018-01-05 10:55</t>
-  </si>
-  <si>
-    <t>2018-01-05 14:03</t>
-  </si>
-  <si>
-    <t>2018-01-05 08:49</t>
-  </si>
-  <si>
-    <t>2018-01-05 12:12</t>
-  </si>
-  <si>
     <t>2018-01-05 17:44</t>
   </si>
   <si>
     <t>2018-01-05 19:37</t>
   </si>
   <si>
-    <t>2018-01-05 14:44</t>
-  </si>
-  <si>
-    <t>2018-01-05 17:50</t>
-  </si>
-  <si>
-    <t>2018-01-05 07:14</t>
-  </si>
-  <si>
-    <t>2018-01-05 09:34</t>
-  </si>
-  <si>
-    <t>2018-01-05 16:05</t>
-  </si>
-  <si>
-    <t>2018-01-05 18:25</t>
+    <t>2018-01-06 06:17</t>
+  </si>
+  <si>
+    <t>2018-01-06 08:12</t>
+  </si>
+  <si>
+    <t>2018-01-06 06:39</t>
+  </si>
+  <si>
+    <t>2018-01-06 10:02</t>
+  </si>
+  <si>
+    <t>2018-01-06 06:55</t>
+  </si>
+  <si>
+    <t>2018-01-06 10:18</t>
+  </si>
+  <si>
+    <t>2018-01-06 07:02</t>
+  </si>
+  <si>
+    <t>2018-01-06 10:22</t>
   </si>
   <si>
     <t>2018-01-06 07:08</t>
@@ -1584,58 +1608,112 @@
     <t>2018-01-06 10:44</t>
   </si>
   <si>
+    <t>2018-01-06 07:14</t>
+  </si>
+  <si>
+    <t>2018-01-06 09:34</t>
+  </si>
+  <si>
+    <t>2018-01-06 07:26</t>
+  </si>
+  <si>
+    <t>2018-01-06 10:12</t>
+  </si>
+  <si>
+    <t>2018-01-06 08:49</t>
+  </si>
+  <si>
+    <t>2018-01-06 12:12</t>
+  </si>
+  <si>
     <t>2018-01-06 09:01</t>
   </si>
   <si>
     <t>2018-01-06 11:26</t>
   </si>
   <si>
+    <t>2018-01-06 09:12</t>
+  </si>
+  <si>
+    <t>2018-01-06 12:32</t>
+  </si>
+  <si>
     <t>2018-01-06 09:36</t>
   </si>
   <si>
     <t>2018-01-06 12:16</t>
   </si>
   <si>
+    <t>2018-01-06 10:55</t>
+  </si>
+  <si>
+    <t>2018-01-06 14:03</t>
+  </si>
+  <si>
+    <t>2018-01-06 10:57</t>
+  </si>
+  <si>
+    <t>2018-01-06 14:37</t>
+  </si>
+  <si>
+    <t>2018-01-06 11:22</t>
+  </si>
+  <si>
+    <t>2018-01-06 15:02</t>
+  </si>
+  <si>
     <t>2018-01-06 11:40</t>
   </si>
   <si>
     <t>2018-01-06 13:19</t>
   </si>
   <si>
+    <t>2018-01-06 12:53</t>
+  </si>
+  <si>
+    <t>2018-01-06 15:18</t>
+  </si>
+  <si>
+    <t>2018-01-06 13:54</t>
+  </si>
+  <si>
+    <t>2018-01-06 17:34</t>
+  </si>
+  <si>
+    <t>2018-01-06 13:56</t>
+  </si>
+  <si>
+    <t>2018-01-06 17:56</t>
+  </si>
+  <si>
+    <t>2018-01-06 14:44</t>
+  </si>
+  <si>
+    <t>2018-01-06 17:50</t>
+  </si>
+  <si>
+    <t>2018-01-06 14:45</t>
+  </si>
+  <si>
+    <t>2018-01-06 17:45</t>
+  </si>
+  <si>
+    <t>2018-01-06 16:05</t>
+  </si>
+  <si>
+    <t>2018-01-06 18:25</t>
+  </si>
+  <si>
     <t>2018-01-06 16:27</t>
   </si>
   <si>
     <t>2018-01-06 18:47</t>
   </si>
   <si>
-    <t>2018-01-06 06:39</t>
-  </si>
-  <si>
-    <t>2018-01-06 10:02</t>
-  </si>
-  <si>
-    <t>2018-01-06 06:55</t>
-  </si>
-  <si>
-    <t>2018-01-06 10:18</t>
-  </si>
-  <si>
-    <t>2018-01-06 07:02</t>
-  </si>
-  <si>
-    <t>2018-01-06 10:22</t>
-  </si>
-  <si>
-    <t>2018-01-06 11:22</t>
-  </si>
-  <si>
-    <t>2018-01-06 15:02</t>
-  </si>
-  <si>
-    <t>2018-01-06 13:54</t>
-  </si>
-  <si>
-    <t>2018-01-06 17:34</t>
+    <t>2018-01-06 16:50</t>
+  </si>
+  <si>
+    <t>2018-01-06 18:45</t>
   </si>
   <si>
     <t>2018-01-06 17:16</t>
@@ -1644,88 +1722,34 @@
     <t>2018-01-06 19:56</t>
   </si>
   <si>
-    <t>2018-01-06 16:50</t>
-  </si>
-  <si>
-    <t>2018-01-06 18:45</t>
-  </si>
-  <si>
-    <t>2018-01-06 10:57</t>
-  </si>
-  <si>
-    <t>2018-01-06 14:37</t>
-  </si>
-  <si>
-    <t>2018-01-06 13:56</t>
-  </si>
-  <si>
-    <t>2018-01-06 17:56</t>
-  </si>
-  <si>
-    <t>2018-01-06 09:12</t>
-  </si>
-  <si>
-    <t>2018-01-06 12:32</t>
-  </si>
-  <si>
-    <t>2018-01-06 14:45</t>
-  </si>
-  <si>
-    <t>2018-01-06 17:45</t>
-  </si>
-  <si>
-    <t>2018-01-06 06:17</t>
-  </si>
-  <si>
-    <t>2018-01-06 08:12</t>
-  </si>
-  <si>
-    <t>2018-01-06 12:53</t>
-  </si>
-  <si>
-    <t>2018-01-06 15:18</t>
-  </si>
-  <si>
-    <t>2018-01-06 07:26</t>
-  </si>
-  <si>
-    <t>2018-01-06 10:12</t>
-  </si>
-  <si>
-    <t>2018-01-06 10:55</t>
-  </si>
-  <si>
-    <t>2018-01-06 14:03</t>
-  </si>
-  <si>
-    <t>2018-01-06 08:49</t>
-  </si>
-  <si>
-    <t>2018-01-06 12:12</t>
-  </si>
-  <si>
     <t>2018-01-06 17:44</t>
   </si>
   <si>
     <t>2018-01-06 19:37</t>
   </si>
   <si>
-    <t>2018-01-06 14:44</t>
-  </si>
-  <si>
-    <t>2018-01-06 17:50</t>
-  </si>
-  <si>
-    <t>2018-01-06 07:14</t>
-  </si>
-  <si>
-    <t>2018-01-06 09:34</t>
-  </si>
-  <si>
-    <t>2018-01-06 16:05</t>
-  </si>
-  <si>
-    <t>2018-01-06 18:25</t>
+    <t>2018-01-07 06:17</t>
+  </si>
+  <si>
+    <t>2018-01-07 08:12</t>
+  </si>
+  <si>
+    <t>2018-01-07 06:39</t>
+  </si>
+  <si>
+    <t>2018-01-07 10:02</t>
+  </si>
+  <si>
+    <t>2018-01-07 06:55</t>
+  </si>
+  <si>
+    <t>2018-01-07 10:18</t>
+  </si>
+  <si>
+    <t>2018-01-07 07:02</t>
+  </si>
+  <si>
+    <t>2018-01-07 10:22</t>
   </si>
   <si>
     <t>2018-01-07 07:08</t>
@@ -1734,58 +1758,112 @@
     <t>2018-01-07 10:44</t>
   </si>
   <si>
+    <t>2018-01-07 07:14</t>
+  </si>
+  <si>
+    <t>2018-01-07 09:34</t>
+  </si>
+  <si>
+    <t>2018-01-07 07:26</t>
+  </si>
+  <si>
+    <t>2018-01-07 10:12</t>
+  </si>
+  <si>
+    <t>2018-01-07 08:49</t>
+  </si>
+  <si>
+    <t>2018-01-07 12:12</t>
+  </si>
+  <si>
     <t>2018-01-07 09:01</t>
   </si>
   <si>
     <t>2018-01-07 11:26</t>
   </si>
   <si>
+    <t>2018-01-07 09:12</t>
+  </si>
+  <si>
+    <t>2018-01-07 12:32</t>
+  </si>
+  <si>
     <t>2018-01-07 09:36</t>
   </si>
   <si>
     <t>2018-01-07 12:16</t>
   </si>
   <si>
+    <t>2018-01-07 10:55</t>
+  </si>
+  <si>
+    <t>2018-01-07 14:03</t>
+  </si>
+  <si>
+    <t>2018-01-07 10:57</t>
+  </si>
+  <si>
+    <t>2018-01-07 14:37</t>
+  </si>
+  <si>
+    <t>2018-01-07 11:22</t>
+  </si>
+  <si>
+    <t>2018-01-07 15:02</t>
+  </si>
+  <si>
     <t>2018-01-07 11:40</t>
   </si>
   <si>
     <t>2018-01-07 13:19</t>
   </si>
   <si>
+    <t>2018-01-07 12:53</t>
+  </si>
+  <si>
+    <t>2018-01-07 15:18</t>
+  </si>
+  <si>
+    <t>2018-01-07 13:54</t>
+  </si>
+  <si>
+    <t>2018-01-07 17:34</t>
+  </si>
+  <si>
+    <t>2018-01-07 13:56</t>
+  </si>
+  <si>
+    <t>2018-01-07 17:56</t>
+  </si>
+  <si>
+    <t>2018-01-07 14:44</t>
+  </si>
+  <si>
+    <t>2018-01-07 17:50</t>
+  </si>
+  <si>
+    <t>2018-01-07 14:45</t>
+  </si>
+  <si>
+    <t>2018-01-07 17:45</t>
+  </si>
+  <si>
+    <t>2018-01-07 16:05</t>
+  </si>
+  <si>
+    <t>2018-01-07 18:25</t>
+  </si>
+  <si>
     <t>2018-01-07 16:27</t>
   </si>
   <si>
     <t>2018-01-07 18:47</t>
   </si>
   <si>
-    <t>2018-01-07 06:39</t>
-  </si>
-  <si>
-    <t>2018-01-07 10:02</t>
-  </si>
-  <si>
-    <t>2018-01-07 06:55</t>
-  </si>
-  <si>
-    <t>2018-01-07 10:18</t>
-  </si>
-  <si>
-    <t>2018-01-07 07:02</t>
-  </si>
-  <si>
-    <t>2018-01-07 10:22</t>
-  </si>
-  <si>
-    <t>2018-01-07 11:22</t>
-  </si>
-  <si>
-    <t>2018-01-07 15:02</t>
-  </si>
-  <si>
-    <t>2018-01-07 13:54</t>
-  </si>
-  <si>
-    <t>2018-01-07 17:34</t>
+    <t>2018-01-07 16:50</t>
+  </si>
+  <si>
+    <t>2018-01-07 18:45</t>
   </si>
   <si>
     <t>2018-01-07 17:16</t>
@@ -1794,90 +1872,12 @@
     <t>2018-01-07 19:56</t>
   </si>
   <si>
-    <t>2018-01-07 16:50</t>
-  </si>
-  <si>
-    <t>2018-01-07 18:45</t>
-  </si>
-  <si>
-    <t>2018-01-07 10:57</t>
-  </si>
-  <si>
-    <t>2018-01-07 14:37</t>
-  </si>
-  <si>
-    <t>2018-01-07 13:56</t>
-  </si>
-  <si>
-    <t>2018-01-07 17:56</t>
-  </si>
-  <si>
-    <t>2018-01-07 09:12</t>
-  </si>
-  <si>
-    <t>2018-01-07 12:32</t>
-  </si>
-  <si>
-    <t>2018-01-07 14:45</t>
-  </si>
-  <si>
-    <t>2018-01-07 17:45</t>
-  </si>
-  <si>
-    <t>2018-01-07 06:17</t>
-  </si>
-  <si>
-    <t>2018-01-07 08:12</t>
-  </si>
-  <si>
-    <t>2018-01-07 12:53</t>
-  </si>
-  <si>
-    <t>2018-01-07 15:18</t>
-  </si>
-  <si>
-    <t>2018-01-07 07:26</t>
-  </si>
-  <si>
-    <t>2018-01-07 10:12</t>
-  </si>
-  <si>
-    <t>2018-01-07 10:55</t>
-  </si>
-  <si>
-    <t>2018-01-07 14:03</t>
-  </si>
-  <si>
-    <t>2018-01-07 08:49</t>
-  </si>
-  <si>
-    <t>2018-01-07 12:12</t>
-  </si>
-  <si>
     <t>2018-01-07 17:44</t>
   </si>
   <si>
     <t>2018-01-07 19:37</t>
   </si>
   <si>
-    <t>2018-01-07 14:44</t>
-  </si>
-  <si>
-    <t>2018-01-07 17:50</t>
-  </si>
-  <si>
-    <t>2018-01-07 07:14</t>
-  </si>
-  <si>
-    <t>2018-01-07 09:34</t>
-  </si>
-  <si>
-    <t>2018-01-07 16:05</t>
-  </si>
-  <si>
-    <t>2018-01-07 18:25</t>
-  </si>
-  <si>
     <t>Employee name</t>
   </si>
   <si>
@@ -1929,19 +1929,22 @@
     <t>-875init</t>
   </si>
   <si>
-    <t>Constraint match</t>
+    <t>Constraint name</t>
+  </si>
+  <si>
+    <t>Constraint weight</t>
+  </si>
+  <si>
+    <t>Match count</t>
   </si>
   <si>
     <t>Match score</t>
   </si>
   <si>
-    <t>Total score</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
+    <t>Justifications</t>
+  </si>
+  <si>
+    <t>Unassigned variables</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +1966,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1972,6 +1975,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="BABDB6"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1998,6 +2006,16 @@
         <fgColor rgb="FCAF3E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCE94F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2011,30 +2029,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment wrapText="true" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2075,7 +2105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="4.0" state="frozen" topLeftCell="B5" activePane="bottomRight"/>
@@ -2084,9 +2114,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.99609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="114.34375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.91015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="113.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2181,7 +2211,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -2190,7 +2220,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.7265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2216,7 +2246,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -2225,10 +2255,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="6.22265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.48828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.51171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.4140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.83984375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.2890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2953,7 +2983,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AY52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -2962,57 +2992,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.5078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="4.9609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="4.609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.0078125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.3515625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.63671875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.6953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="4.90234375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="5.37890625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="5.578125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="4.71484375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="4.8828125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="4.921875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="5.4375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="5.109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="4.71875" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="4.77734375" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="4.734375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="5.7578125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="4.51171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="4.6328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="4.91796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.359375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="4.86328125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="4.4453125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="4.9609375" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="5.046875" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="5.69921875" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="5.08984375" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="4.4453125" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="4.5234375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="6.375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="4.8671875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="4.48046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="4.7421875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="5.109375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="4.88671875" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="4.37890625" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" width="4.80078125" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" width="5.0703125" customWidth="true" bestFit="true"/>
-    <col min="47" max="47" width="4.83203125" customWidth="true" bestFit="true"/>
-    <col min="48" max="48" width="4.421875" customWidth="true" bestFit="true"/>
-    <col min="49" max="49" width="5.19921875" customWidth="true" bestFit="true"/>
-    <col min="50" max="50" width="4.66015625" customWidth="true" bestFit="true"/>
-    <col min="51" max="51" width="4.59375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.33203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="4.859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="4.6484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="5.01953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.02734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.10546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.359375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="4.9296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="5.1875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="5.34765625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="4.73046875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="4.7265625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="4.796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="5.20703125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="5.05859375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="4.69140625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="4.8125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="5.4140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="4.5859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="4.10546875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="4.89453125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="4.60546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="4.87109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="4.10546875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="4.73828125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="4.2421875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="4.52734375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="4.8046875" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="4.85546875" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="5.37890625" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="4.79296875" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="4.50390625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="4.5625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="5.76953125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="4.7734375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="4.4765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="4.16796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="4.7578125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="5.05859375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="4.8125" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="4.21875" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="4.74609375" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" width="4.75" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" width="4.35546875" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" width="5.16015625" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" width="4.625" customWidth="true" bestFit="true"/>
+    <col min="51" max="51" width="4.46484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6690,7 +6720,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A1:U1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6700,7 +6730,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -6709,16 +6739,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.3359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.36328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.10546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="15.1953125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.1015625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="15.26953125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.15234375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="15.21875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.12890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.25390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.7265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.9921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="15.671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="15.09375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.50390625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="15.078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6783,7 +6813,7 @@
       <c r="E3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -6795,7 +6825,7 @@
       <c r="I3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -6908,7 +6938,7 @@
       <c r="D7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -7033,7 +7063,7 @@
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -7080,7 +7110,7 @@
       <c r="H12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -7106,10 +7136,10 @@
       <c r="F13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -7141,7 +7171,7 @@
       <c r="G14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -7295,7 +7325,7 @@
       <c r="E19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -7324,7 +7354,7 @@
       <c r="D20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -7353,7 +7383,7 @@
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -7371,7 +7401,7 @@
       <c r="I21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7490,13 +7520,13 @@
       <c r="F25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -7842,7 +7872,7 @@
       <c r="F36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -8008,7 +8038,7 @@
       <c r="H41" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J41" s="2" t="s">
@@ -8069,7 +8099,7 @@
       <c r="G43" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -8121,7 +8151,7 @@
       <c r="C45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -8351,7 +8381,7 @@
       <c r="E52" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -8380,7 +8410,7 @@
       <c r="D53" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -8427,7 +8457,7 @@
       <c r="I54" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8444,7 +8474,7 @@
       <c r="D55" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
@@ -8555,7 +8585,7 @@
       <c r="I58" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8677,7 +8707,7 @@
       <c r="G62" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I62" s="2" t="s">
@@ -8761,7 +8791,7 @@
       <c r="C65" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -8770,7 +8800,7 @@
       <c r="F65" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -8799,7 +8829,7 @@
       <c r="E66" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G66" s="2" t="s">
@@ -8904,7 +8934,7 @@
       <c r="H69" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="I69" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J69" s="2" t="s">
@@ -8956,7 +8986,7 @@
       <c r="D71" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F71" s="2" t="s">
@@ -9023,7 +9053,7 @@
       <c r="E73" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G73" s="2" t="s">
@@ -9099,7 +9129,7 @@
       <c r="I75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J75" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9177,7 +9207,7 @@
       <c r="C78" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -9349,7 +9379,7 @@
       <c r="G83" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I83" s="2" t="s">
@@ -9378,7 +9408,7 @@
       <c r="F84" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H84" s="2" t="s">
@@ -9416,7 +9446,7 @@
       <c r="H85" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I85" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J85" s="2" t="s">
@@ -9442,7 +9472,7 @@
       <c r="F86" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H86" s="2" t="s">
@@ -9483,7 +9513,7 @@
       <c r="I87" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="J87" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9567,7 +9597,7 @@
       <c r="E90" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G90" s="2" t="s">
@@ -9640,7 +9670,7 @@
       <c r="H92" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="I92" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J92" s="2" t="s">
@@ -9724,7 +9754,7 @@
       <c r="D95" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
@@ -9797,7 +9827,7 @@
       <c r="G97" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="H97" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I97" s="2" t="s">
@@ -9817,7 +9847,7 @@
       <c r="C98" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E98" s="2" t="s">
@@ -9884,7 +9914,7 @@
       <c r="D100" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F100" s="2" t="s">
@@ -9963,7 +9993,7 @@
       <c r="I102" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J102" s="3" t="s">
+      <c r="J102" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -10111,7 +10141,7 @@
       <c r="E107" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="F107" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G107" s="2" t="s">
@@ -10152,7 +10182,7 @@
       <c r="H108" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="I108" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J108" s="2" t="s">
@@ -10297,7 +10327,7 @@
       <c r="C113" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E113" s="2" t="s">
@@ -10309,7 +10339,7 @@
       <c r="G113" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="H113" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I113" s="2" t="s">
@@ -10850,7 +10880,7 @@
       <c r="F130" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="G130" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H130" s="2" t="s">
@@ -10888,7 +10918,7 @@
       <c r="H131" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I131" s="3" t="s">
+      <c r="I131" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J131" s="2" t="s">
@@ -10908,7 +10938,7 @@
       <c r="D132" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F132" s="2" t="s">
@@ -11141,7 +11171,7 @@
       <c r="G139" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="H139" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I139" s="2" t="s">
@@ -11161,7 +11191,7 @@
       <c r="C140" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E140" s="2" t="s">
@@ -11199,7 +11229,7 @@
       <c r="E141" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="F141" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G141" s="2" t="s">
@@ -11371,7 +11401,7 @@
       <c r="I146" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J146" s="3" t="s">
+      <c r="J146" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -11575,7 +11605,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -11584,13 +11614,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.84765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.94921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="20.6796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="56.2890625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="21.8984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.8984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.05078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.71484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.65625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="20.3203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="53.78125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="21.96484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11621,13 +11651,13 @@
         <v>242</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>243</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>244</v>
@@ -11644,13 +11674,13 @@
         <v>247</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>249</v>
@@ -11667,13 +11697,13 @@
         <v>250</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>252</v>
@@ -11690,13 +11720,13 @@
         <v>253</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>254</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>255</v>
@@ -11719,7 +11749,7 @@
         <v>257</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>258</v>
@@ -11736,13 +11766,13 @@
         <v>259</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>260</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>261</v>
@@ -11759,13 +11789,13 @@
         <v>262</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>263</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>264</v>
@@ -11782,13 +11812,13 @@
         <v>265</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>267</v>
@@ -11805,13 +11835,13 @@
         <v>268</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>269</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>270</v>
@@ -11828,13 +11858,13 @@
         <v>271</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>272</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>273</v>
@@ -11851,13 +11881,13 @@
         <v>274</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>276</v>
@@ -11874,13 +11904,13 @@
         <v>277</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>279</v>
@@ -11920,13 +11950,13 @@
         <v>283</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>284</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>285</v>
@@ -11943,13 +11973,13 @@
         <v>286</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>287</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>288</v>
@@ -11966,13 +11996,13 @@
         <v>289</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>290</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>291</v>
@@ -11989,13 +12019,13 @@
         <v>292</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>293</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>294</v>
@@ -12012,13 +12042,13 @@
         <v>295</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>296</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>297</v>
@@ -12035,13 +12065,13 @@
         <v>298</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>299</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>300</v>
@@ -12058,13 +12088,13 @@
         <v>301</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>302</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>303</v>
@@ -12081,13 +12111,13 @@
         <v>304</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>306</v>
@@ -12104,13 +12134,13 @@
         <v>307</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>309</v>
@@ -12127,7 +12157,7 @@
         <v>310</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>311</v>
@@ -12150,7 +12180,7 @@
         <v>313</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>314</v>
@@ -12173,13 +12203,13 @@
         <v>316</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>317</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>318</v>
@@ -12196,13 +12226,13 @@
         <v>242</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>319</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>320</v>
@@ -12219,13 +12249,13 @@
         <v>247</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>321</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>322</v>
@@ -12242,13 +12272,13 @@
         <v>250</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>323</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>324</v>
@@ -12265,13 +12295,13 @@
         <v>253</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>325</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>326</v>
@@ -12294,7 +12324,7 @@
         <v>327</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>328</v>
@@ -12311,13 +12341,13 @@
         <v>259</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>329</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>330</v>
@@ -12334,13 +12364,13 @@
         <v>262</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>331</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>332</v>
@@ -12357,13 +12387,13 @@
         <v>265</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>333</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>334</v>
@@ -12380,13 +12410,13 @@
         <v>268</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>336</v>
@@ -12403,13 +12433,13 @@
         <v>271</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>338</v>
@@ -12426,13 +12456,13 @@
         <v>274</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>339</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>340</v>
@@ -12449,13 +12479,13 @@
         <v>277</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>341</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>342</v>
@@ -12495,13 +12525,13 @@
         <v>283</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>345</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>346</v>
@@ -12518,13 +12548,13 @@
         <v>286</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>347</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>348</v>
@@ -12541,13 +12571,13 @@
         <v>289</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>349</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>350</v>
@@ -12564,13 +12594,13 @@
         <v>292</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>351</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>352</v>
@@ -12587,13 +12617,13 @@
         <v>295</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>353</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>354</v>
@@ -12610,13 +12640,13 @@
         <v>298</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>355</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>356</v>
@@ -12633,13 +12663,13 @@
         <v>301</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>357</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>358</v>
@@ -12656,13 +12686,13 @@
         <v>304</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>359</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>360</v>
@@ -12679,13 +12709,13 @@
         <v>307</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>361</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>362</v>
@@ -12702,7 +12732,7 @@
         <v>310</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>363</v>
@@ -12725,7 +12755,7 @@
         <v>313</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>365</v>
@@ -12748,13 +12778,13 @@
         <v>316</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>367</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>368</v>
@@ -12771,13 +12801,13 @@
         <v>242</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>369</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>370</v>
@@ -12794,13 +12824,13 @@
         <v>247</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>371</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>372</v>
@@ -12817,13 +12847,13 @@
         <v>250</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>373</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>374</v>
@@ -12840,13 +12870,13 @@
         <v>253</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>376</v>
@@ -12869,7 +12899,7 @@
         <v>377</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>378</v>
@@ -12886,13 +12916,13 @@
         <v>259</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>379</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>380</v>
@@ -12909,13 +12939,13 @@
         <v>262</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>381</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>382</v>
@@ -12932,13 +12962,13 @@
         <v>265</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>383</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>384</v>
@@ -12955,13 +12985,13 @@
         <v>268</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>385</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>386</v>
@@ -12978,13 +13008,13 @@
         <v>271</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>387</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>388</v>
@@ -13001,13 +13031,13 @@
         <v>274</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>389</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>390</v>
@@ -13024,13 +13054,13 @@
         <v>277</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>391</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>392</v>
@@ -13070,13 +13100,13 @@
         <v>283</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>395</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>396</v>
@@ -13093,13 +13123,13 @@
         <v>286</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>397</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>398</v>
@@ -13116,13 +13146,13 @@
         <v>289</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>399</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>400</v>
@@ -13139,13 +13169,13 @@
         <v>292</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>401</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>402</v>
@@ -13162,13 +13192,13 @@
         <v>295</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>403</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>404</v>
@@ -13185,13 +13215,13 @@
         <v>298</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>405</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>406</v>
@@ -13208,13 +13238,13 @@
         <v>301</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>407</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>408</v>
@@ -13231,13 +13261,13 @@
         <v>304</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>409</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>410</v>
@@ -13254,13 +13284,13 @@
         <v>307</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>411</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>412</v>
@@ -13277,7 +13307,7 @@
         <v>310</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>413</v>
@@ -13300,7 +13330,7 @@
         <v>313</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>415</v>
@@ -13323,13 +13353,13 @@
         <v>316</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>417</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>418</v>
@@ -13346,13 +13376,13 @@
         <v>242</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>419</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>420</v>
@@ -13369,13 +13399,13 @@
         <v>247</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>421</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>422</v>
@@ -13392,13 +13422,13 @@
         <v>250</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>423</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>424</v>
@@ -13415,13 +13445,13 @@
         <v>253</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>425</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>426</v>
@@ -13444,7 +13474,7 @@
         <v>427</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>428</v>
@@ -13461,13 +13491,13 @@
         <v>259</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>429</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>430</v>
@@ -13484,13 +13514,13 @@
         <v>262</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>431</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>432</v>
@@ -13507,13 +13537,13 @@
         <v>265</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>433</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>434</v>
@@ -13530,13 +13560,13 @@
         <v>268</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>435</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>436</v>
@@ -13553,13 +13583,13 @@
         <v>271</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>438</v>
@@ -13576,13 +13606,13 @@
         <v>274</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>439</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>440</v>
@@ -13599,13 +13629,13 @@
         <v>277</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>441</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>442</v>
@@ -13645,13 +13675,13 @@
         <v>283</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>445</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>446</v>
@@ -13668,13 +13698,13 @@
         <v>286</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>447</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>448</v>
@@ -13691,13 +13721,13 @@
         <v>289</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>449</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>450</v>
@@ -13714,13 +13744,13 @@
         <v>292</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>451</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>452</v>
@@ -13737,13 +13767,13 @@
         <v>295</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>453</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>454</v>
@@ -13760,13 +13790,13 @@
         <v>298</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>455</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>456</v>
@@ -13783,13 +13813,13 @@
         <v>301</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>457</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>458</v>
@@ -13806,13 +13836,13 @@
         <v>304</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>459</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>460</v>
@@ -13829,13 +13859,13 @@
         <v>307</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>461</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>462</v>
@@ -13852,7 +13882,7 @@
         <v>310</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>463</v>
@@ -13875,7 +13905,7 @@
         <v>313</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>465</v>
@@ -13898,13 +13928,13 @@
         <v>316</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>467</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>468</v>
@@ -13921,13 +13951,13 @@
         <v>242</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>469</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>470</v>
@@ -13944,13 +13974,13 @@
         <v>247</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>471</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>472</v>
@@ -13967,13 +13997,13 @@
         <v>250</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>473</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>474</v>
@@ -13990,13 +14020,13 @@
         <v>253</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>475</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>476</v>
@@ -14019,7 +14049,7 @@
         <v>477</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>478</v>
@@ -14036,13 +14066,13 @@
         <v>259</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>479</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>480</v>
@@ -14059,13 +14089,13 @@
         <v>262</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>481</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>482</v>
@@ -14082,13 +14112,13 @@
         <v>265</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>483</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>484</v>
@@ -14105,13 +14135,13 @@
         <v>268</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>485</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>486</v>
@@ -14128,13 +14158,13 @@
         <v>271</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>487</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>488</v>
@@ -14151,13 +14181,13 @@
         <v>274</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>489</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>490</v>
@@ -14174,13 +14204,13 @@
         <v>277</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>491</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>492</v>
@@ -14220,13 +14250,13 @@
         <v>283</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>495</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>496</v>
@@ -14243,13 +14273,13 @@
         <v>286</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>497</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>498</v>
@@ -14266,13 +14296,13 @@
         <v>289</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>499</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>500</v>
@@ -14289,13 +14319,13 @@
         <v>292</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>501</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>502</v>
@@ -14312,13 +14342,13 @@
         <v>295</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>503</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>504</v>
@@ -14335,13 +14365,13 @@
         <v>298</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>505</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>506</v>
@@ -14358,13 +14388,13 @@
         <v>301</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>507</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>508</v>
@@ -14381,13 +14411,13 @@
         <v>304</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>510</v>
@@ -14404,13 +14434,13 @@
         <v>307</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>511</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>512</v>
@@ -14427,7 +14457,7 @@
         <v>310</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>513</v>
@@ -14450,7 +14480,7 @@
         <v>313</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>515</v>
@@ -14473,13 +14503,13 @@
         <v>316</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>517</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>518</v>
@@ -14496,13 +14526,13 @@
         <v>242</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>519</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>520</v>
@@ -14519,13 +14549,13 @@
         <v>247</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>521</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>522</v>
@@ -14542,13 +14572,13 @@
         <v>250</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>523</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>524</v>
@@ -14565,13 +14595,13 @@
         <v>253</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>525</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>526</v>
@@ -14594,7 +14624,7 @@
         <v>527</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>528</v>
@@ -14611,13 +14641,13 @@
         <v>259</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>529</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>530</v>
@@ -14634,13 +14664,13 @@
         <v>262</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>531</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>532</v>
@@ -14657,13 +14687,13 @@
         <v>265</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>533</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>534</v>
@@ -14680,13 +14710,13 @@
         <v>268</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>535</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>536</v>
@@ -14703,13 +14733,13 @@
         <v>271</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>537</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>538</v>
@@ -14726,13 +14756,13 @@
         <v>274</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>539</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>540</v>
@@ -14749,13 +14779,13 @@
         <v>277</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>541</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>542</v>
@@ -14795,13 +14825,13 @@
         <v>283</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>545</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>546</v>
@@ -14818,13 +14848,13 @@
         <v>286</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>547</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>548</v>
@@ -14841,13 +14871,13 @@
         <v>289</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>549</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>550</v>
@@ -14864,13 +14894,13 @@
         <v>292</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>551</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>552</v>
@@ -14887,13 +14917,13 @@
         <v>295</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>553</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>554</v>
@@ -14910,13 +14940,13 @@
         <v>298</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>555</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>556</v>
@@ -14933,13 +14963,13 @@
         <v>301</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>557</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>558</v>
@@ -14956,13 +14986,13 @@
         <v>304</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>559</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>560</v>
@@ -14979,13 +15009,13 @@
         <v>307</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>561</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>562</v>
@@ -15002,7 +15032,7 @@
         <v>310</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>563</v>
@@ -15025,7 +15055,7 @@
         <v>313</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>565</v>
@@ -15048,13 +15078,13 @@
         <v>316</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>567</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>568</v>
@@ -15071,13 +15101,13 @@
         <v>242</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>569</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>570</v>
@@ -15094,13 +15124,13 @@
         <v>247</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>571</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>572</v>
@@ -15117,13 +15147,13 @@
         <v>250</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>573</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>574</v>
@@ -15140,13 +15170,13 @@
         <v>253</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>575</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>576</v>
@@ -15169,7 +15199,7 @@
         <v>577</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>578</v>
@@ -15186,13 +15216,13 @@
         <v>259</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>579</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>580</v>
@@ -15209,13 +15239,13 @@
         <v>262</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>581</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>582</v>
@@ -15232,13 +15262,13 @@
         <v>265</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>583</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>584</v>
@@ -15255,13 +15285,13 @@
         <v>268</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>585</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>586</v>
@@ -15278,13 +15308,13 @@
         <v>271</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>587</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>588</v>
@@ -15301,13 +15331,13 @@
         <v>274</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>589</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>590</v>
@@ -15324,13 +15354,13 @@
         <v>277</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>591</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>592</v>
@@ -15370,13 +15400,13 @@
         <v>283</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>595</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>596</v>
@@ -15393,13 +15423,13 @@
         <v>286</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>597</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>598</v>
@@ -15416,13 +15446,13 @@
         <v>289</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>599</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>600</v>
@@ -15439,13 +15469,13 @@
         <v>292</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>601</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>602</v>
@@ -15462,13 +15492,13 @@
         <v>295</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>603</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>604</v>
@@ -15485,13 +15515,13 @@
         <v>298</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>605</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>606</v>
@@ -15508,13 +15538,13 @@
         <v>301</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>607</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>608</v>
@@ -15531,13 +15561,13 @@
         <v>304</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>610</v>
@@ -15554,13 +15584,13 @@
         <v>307</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>612</v>
@@ -15577,7 +15607,7 @@
         <v>310</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>613</v>
@@ -15600,7 +15630,7 @@
         <v>313</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>615</v>
@@ -15623,13 +15653,13 @@
         <v>316</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>617</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>618</v>
@@ -15652,7 +15682,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:CV152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="2.0" state="frozen" topLeftCell="C3" activePane="bottomRight"/>
@@ -15661,8 +15691,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.73828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.3359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.53515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.859375" customWidth="true"/>
     <col min="4" max="4" width="5.859375" customWidth="true"/>
     <col min="5" max="5" width="5.859375" customWidth="true"/>
@@ -17604,7 +17634,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="7">
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="Q1:AD1"/>
     <mergeCell ref="AE1:AR1"/>
@@ -17623,7 +17653,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -17632,9 +17662,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.08203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.2734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.08984375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="1.015625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="12.08984375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="12.73046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17656,26 +17690,31 @@
       <c r="C3" s="1" t="s">
         <v>638</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>641</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="n">
+        <v>-875.0</v>
+      </c>
+    </row>
+    <row r="5"/>
+    <row r="6"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
